--- a/realme/OCTOBER/16.10.2021/realme Bank Statement OCTOBER 2021.xlsx
+++ b/realme/OCTOBER/16.10.2021/realme Bank Statement OCTOBER 2021.xlsx
@@ -2481,18 +2481,57 @@
     <xf numFmtId="2" fontId="5" fillId="35" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="40" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="34" fillId="40" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="38" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="38" fillId="35" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="38" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="38" fillId="35" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2505,39 +2544,6 @@
     <xf numFmtId="0" fontId="38" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="38" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="38" fillId="35" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="38" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="38" fillId="35" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="38" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2635,12 +2641,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="41" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="40" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="34" fillId="40" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3180,21 +3180,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25">
-      <c r="B1" s="263" t="s">
+      <c r="B1" s="265" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="263"/>
-      <c r="D1" s="263"/>
-      <c r="E1" s="263"/>
+      <c r="C1" s="265"/>
+      <c r="D1" s="265"/>
+      <c r="E1" s="265"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" customHeight="1">
       <c r="A2" s="15"/>
-      <c r="B2" s="264" t="s">
+      <c r="B2" s="266" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="264"/>
-      <c r="D2" s="264"/>
-      <c r="E2" s="264"/>
+      <c r="C2" s="266"/>
+      <c r="D2" s="266"/>
+      <c r="E2" s="266"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1">
       <c r="B3" s="16" t="s">
@@ -4061,67 +4061,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="271" t="s">
+      <c r="A1" s="267" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="271"/>
-      <c r="C1" s="271"/>
-      <c r="D1" s="271"/>
-      <c r="E1" s="271"/>
-      <c r="F1" s="271"/>
-      <c r="G1" s="271"/>
-      <c r="H1" s="271"/>
-      <c r="I1" s="271"/>
-      <c r="J1" s="271"/>
-      <c r="K1" s="271"/>
-      <c r="L1" s="271"/>
-      <c r="M1" s="271"/>
-      <c r="N1" s="271"/>
-      <c r="O1" s="271"/>
-      <c r="P1" s="271"/>
-      <c r="Q1" s="271"/>
+      <c r="B1" s="267"/>
+      <c r="C1" s="267"/>
+      <c r="D1" s="267"/>
+      <c r="E1" s="267"/>
+      <c r="F1" s="267"/>
+      <c r="G1" s="267"/>
+      <c r="H1" s="267"/>
+      <c r="I1" s="267"/>
+      <c r="J1" s="267"/>
+      <c r="K1" s="267"/>
+      <c r="L1" s="267"/>
+      <c r="M1" s="267"/>
+      <c r="N1" s="267"/>
+      <c r="O1" s="267"/>
+      <c r="P1" s="267"/>
+      <c r="Q1" s="267"/>
     </row>
     <row r="2" spans="1:24" s="118" customFormat="1" ht="18">
-      <c r="A2" s="272" t="s">
+      <c r="A2" s="268" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="272"/>
-      <c r="C2" s="272"/>
-      <c r="D2" s="272"/>
-      <c r="E2" s="272"/>
-      <c r="F2" s="272"/>
-      <c r="G2" s="272"/>
-      <c r="H2" s="272"/>
-      <c r="I2" s="272"/>
-      <c r="J2" s="272"/>
-      <c r="K2" s="272"/>
-      <c r="L2" s="272"/>
-      <c r="M2" s="272"/>
-      <c r="N2" s="272"/>
-      <c r="O2" s="272"/>
-      <c r="P2" s="272"/>
-      <c r="Q2" s="272"/>
+      <c r="B2" s="268"/>
+      <c r="C2" s="268"/>
+      <c r="D2" s="268"/>
+      <c r="E2" s="268"/>
+      <c r="F2" s="268"/>
+      <c r="G2" s="268"/>
+      <c r="H2" s="268"/>
+      <c r="I2" s="268"/>
+      <c r="J2" s="268"/>
+      <c r="K2" s="268"/>
+      <c r="L2" s="268"/>
+      <c r="M2" s="268"/>
+      <c r="N2" s="268"/>
+      <c r="O2" s="268"/>
+      <c r="P2" s="268"/>
+      <c r="Q2" s="268"/>
     </row>
     <row r="3" spans="1:24" s="119" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="273" t="s">
+      <c r="A3" s="269" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="274"/>
-      <c r="C3" s="274"/>
-      <c r="D3" s="274"/>
-      <c r="E3" s="274"/>
-      <c r="F3" s="274"/>
-      <c r="G3" s="274"/>
-      <c r="H3" s="274"/>
-      <c r="I3" s="274"/>
-      <c r="J3" s="274"/>
-      <c r="K3" s="274"/>
-      <c r="L3" s="274"/>
-      <c r="M3" s="274"/>
-      <c r="N3" s="274"/>
-      <c r="O3" s="274"/>
-      <c r="P3" s="274"/>
-      <c r="Q3" s="275"/>
+      <c r="B3" s="270"/>
+      <c r="C3" s="270"/>
+      <c r="D3" s="270"/>
+      <c r="E3" s="270"/>
+      <c r="F3" s="270"/>
+      <c r="G3" s="270"/>
+      <c r="H3" s="270"/>
+      <c r="I3" s="270"/>
+      <c r="J3" s="270"/>
+      <c r="K3" s="270"/>
+      <c r="L3" s="270"/>
+      <c r="M3" s="270"/>
+      <c r="N3" s="270"/>
+      <c r="O3" s="270"/>
+      <c r="P3" s="270"/>
+      <c r="Q3" s="271"/>
       <c r="S3" s="49"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -4130,52 +4130,52 @@
       <c r="X3" s="11"/>
     </row>
     <row r="4" spans="1:24" s="121" customFormat="1">
-      <c r="A4" s="276" t="s">
+      <c r="A4" s="272" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="278" t="s">
+      <c r="B4" s="274" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="265" t="s">
+      <c r="C4" s="276" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="265" t="s">
+      <c r="D4" s="276" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="265" t="s">
+      <c r="E4" s="276" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="265" t="s">
+      <c r="F4" s="276" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="265" t="s">
+      <c r="G4" s="276" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="265" t="s">
+      <c r="H4" s="276" t="s">
         <v>59</v>
       </c>
-      <c r="I4" s="265" t="s">
+      <c r="I4" s="276" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="265" t="s">
+      <c r="J4" s="276" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="265" t="s">
+      <c r="K4" s="276" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="265" t="s">
+      <c r="L4" s="276" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="265" t="s">
+      <c r="M4" s="276" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="269" t="s">
+      <c r="N4" s="282" t="s">
         <v>62</v>
       </c>
-      <c r="O4" s="267" t="s">
+      <c r="O4" s="280" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="280" t="s">
+      <c r="P4" s="278" t="s">
         <v>42</v>
       </c>
       <c r="Q4" s="120" t="s">
@@ -4188,22 +4188,22 @@
       <c r="W4" s="123"/>
     </row>
     <row r="5" spans="1:24" s="121" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="277"/>
-      <c r="B5" s="279"/>
-      <c r="C5" s="266"/>
-      <c r="D5" s="266"/>
-      <c r="E5" s="266"/>
-      <c r="F5" s="266"/>
-      <c r="G5" s="266"/>
-      <c r="H5" s="266"/>
-      <c r="I5" s="266"/>
-      <c r="J5" s="266"/>
-      <c r="K5" s="266"/>
-      <c r="L5" s="266"/>
-      <c r="M5" s="266"/>
-      <c r="N5" s="270"/>
-      <c r="O5" s="268"/>
-      <c r="P5" s="281"/>
+      <c r="A5" s="273"/>
+      <c r="B5" s="275"/>
+      <c r="C5" s="277"/>
+      <c r="D5" s="277"/>
+      <c r="E5" s="277"/>
+      <c r="F5" s="277"/>
+      <c r="G5" s="277"/>
+      <c r="H5" s="277"/>
+      <c r="I5" s="277"/>
+      <c r="J5" s="277"/>
+      <c r="K5" s="277"/>
+      <c r="L5" s="277"/>
+      <c r="M5" s="277"/>
+      <c r="N5" s="283"/>
+      <c r="O5" s="281"/>
+      <c r="P5" s="279"/>
       <c r="Q5" s="125" t="s">
         <v>43</v>
       </c>
@@ -7207,6 +7207,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -7223,9 +7226,6 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7264,14 +7264,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="19.5">
-      <c r="A1" s="288" t="s">
+      <c r="A1" s="290" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="288"/>
-      <c r="C1" s="288"/>
-      <c r="D1" s="288"/>
-      <c r="E1" s="288"/>
-      <c r="F1" s="288"/>
+      <c r="B1" s="290"/>
+      <c r="C1" s="290"/>
+      <c r="D1" s="290"/>
+      <c r="E1" s="290"/>
+      <c r="F1" s="290"/>
       <c r="L1" s="39"/>
       <c r="M1" s="173"/>
       <c r="N1" s="173"/>
@@ -7324,14 +7324,14 @@
       <c r="BI1" s="173"/>
     </row>
     <row r="2" spans="1:61" ht="15">
-      <c r="A2" s="289" t="s">
+      <c r="A2" s="291" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="289"/>
-      <c r="C2" s="289"/>
-      <c r="D2" s="289"/>
-      <c r="E2" s="289"/>
-      <c r="F2" s="289"/>
+      <c r="B2" s="291"/>
+      <c r="C2" s="291"/>
+      <c r="D2" s="291"/>
+      <c r="E2" s="291"/>
+      <c r="F2" s="291"/>
       <c r="L2" s="39"/>
       <c r="M2" s="173"/>
       <c r="N2" s="173"/>
@@ -7384,14 +7384,14 @@
       <c r="BI2" s="173"/>
     </row>
     <row r="3" spans="1:61" ht="13.5" thickBot="1">
-      <c r="A3" s="290" t="s">
+      <c r="A3" s="292" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="290"/>
-      <c r="C3" s="290"/>
-      <c r="D3" s="290"/>
-      <c r="E3" s="290"/>
-      <c r="F3" s="290"/>
+      <c r="B3" s="292"/>
+      <c r="C3" s="292"/>
+      <c r="D3" s="292"/>
+      <c r="E3" s="292"/>
+      <c r="F3" s="292"/>
       <c r="K3" s="173"/>
       <c r="L3" s="39"/>
       <c r="M3" s="173"/>
@@ -9567,12 +9567,12 @@
       <c r="BI34" s="173"/>
     </row>
     <row r="35" spans="1:61" ht="13.5" thickBot="1">
-      <c r="A35" s="291" t="s">
+      <c r="A35" s="293" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="292"/>
-      <c r="C35" s="292"/>
-      <c r="D35" s="293"/>
+      <c r="B35" s="294"/>
+      <c r="C35" s="294"/>
+      <c r="D35" s="295"/>
       <c r="E35" s="49"/>
       <c r="F35" s="44"/>
       <c r="G35" s="61"/>
@@ -9632,12 +9632,12 @@
       <c r="BI35" s="173"/>
     </row>
     <row r="36" spans="1:61" ht="13.5" thickBot="1">
-      <c r="A36" s="297" t="s">
+      <c r="A36" s="299" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="298"/>
-      <c r="C36" s="298"/>
-      <c r="D36" s="299"/>
+      <c r="B36" s="300"/>
+      <c r="C36" s="300"/>
+      <c r="D36" s="301"/>
       <c r="E36" s="242">
         <f>F33-C113+K136</f>
         <v>0</v>
@@ -10102,13 +10102,13 @@
       </c>
       <c r="D43" s="216"/>
       <c r="E43" s="49"/>
-      <c r="F43" s="294" t="s">
+      <c r="F43" s="296" t="s">
         <v>24</v>
       </c>
-      <c r="G43" s="295"/>
-      <c r="H43" s="295"/>
-      <c r="I43" s="295"/>
-      <c r="J43" s="296"/>
+      <c r="G43" s="297"/>
+      <c r="H43" s="297"/>
+      <c r="I43" s="297"/>
+      <c r="J43" s="298"/>
       <c r="K43" s="225"/>
       <c r="L43" s="41"/>
       <c r="M43" s="173"/>
@@ -11306,10 +11306,10 @@
       <c r="C62" s="219"/>
       <c r="D62" s="82"/>
       <c r="E62" s="54"/>
-      <c r="F62" s="282" t="s">
+      <c r="F62" s="284" t="s">
         <v>47</v>
       </c>
-      <c r="G62" s="282"/>
+      <c r="G62" s="284"/>
       <c r="H62" s="172"/>
       <c r="I62" s="172"/>
       <c r="J62" s="83" t="s">
@@ -14651,10 +14651,10 @@
       <c r="BI112" s="173"/>
     </row>
     <row r="113" spans="1:61" ht="13.5" thickBot="1">
-      <c r="A113" s="283" t="s">
+      <c r="A113" s="285" t="s">
         <v>28</v>
       </c>
-      <c r="B113" s="284"/>
+      <c r="B113" s="286"/>
       <c r="C113" s="236">
         <f>SUM(C37:C112)</f>
         <v>231910</v>
@@ -14786,10 +14786,10 @@
       <c r="BI114" s="173"/>
     </row>
     <row r="115" spans="1:61" ht="13.5" thickBot="1">
-      <c r="A115" s="285" t="s">
+      <c r="A115" s="287" t="s">
         <v>29</v>
       </c>
-      <c r="B115" s="286"/>
+      <c r="B115" s="288"/>
       <c r="C115" s="234">
         <f>C113+L136</f>
         <v>231910</v>
@@ -16708,8 +16708,8 @@
       <c r="N169" s="176"/>
     </row>
     <row r="170" spans="5:14">
-      <c r="F170" s="287"/>
-      <c r="G170" s="287"/>
+      <c r="F170" s="289"/>
+      <c r="G170" s="289"/>
       <c r="H170" s="173"/>
       <c r="I170" s="52"/>
       <c r="J170" s="39"/>
@@ -17369,7 +17369,7 @@
   <dimension ref="A1:AC225"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -17389,35 +17389,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="26.25">
-      <c r="A1" s="300" t="s">
+      <c r="A1" s="302" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="301"/>
-      <c r="C1" s="301"/>
-      <c r="D1" s="301"/>
-      <c r="E1" s="302"/>
+      <c r="B1" s="303"/>
+      <c r="C1" s="303"/>
+      <c r="D1" s="303"/>
+      <c r="E1" s="304"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:29" ht="21.75">
-      <c r="A2" s="309" t="s">
+      <c r="A2" s="311" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="310"/>
-      <c r="C2" s="310"/>
-      <c r="D2" s="310"/>
-      <c r="E2" s="311"/>
+      <c r="B2" s="312"/>
+      <c r="C2" s="312"/>
+      <c r="D2" s="312"/>
+      <c r="E2" s="313"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:29" ht="24" thickBot="1">
-      <c r="A3" s="303" t="s">
+      <c r="A3" s="305" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="304"/>
-      <c r="C3" s="304"/>
-      <c r="D3" s="304"/>
-      <c r="E3" s="305"/>
+      <c r="B3" s="306"/>
+      <c r="C3" s="306"/>
+      <c r="D3" s="306"/>
+      <c r="E3" s="307"/>
       <c r="F3" s="1"/>
       <c r="G3" s="23"/>
       <c r="H3" s="1"/>
@@ -17444,13 +17444,13 @@
       <c r="AC3" s="1"/>
     </row>
     <row r="4" spans="1:29" ht="24" thickBot="1">
-      <c r="A4" s="312" t="s">
+      <c r="A4" s="314" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="313"/>
-      <c r="C4" s="313"/>
-      <c r="D4" s="313"/>
-      <c r="E4" s="314"/>
+      <c r="B4" s="315"/>
+      <c r="C4" s="315"/>
+      <c r="D4" s="315"/>
+      <c r="E4" s="316"/>
       <c r="F4" s="1"/>
       <c r="G4" s="8"/>
       <c r="H4" s="7" t="s">
@@ -17703,7 +17703,7 @@
         <v>64</v>
       </c>
       <c r="E11" s="201">
-        <v>15050</v>
+        <v>14050</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="29"/>
@@ -17805,10 +17805,10 @@
       <c r="AC13" s="1"/>
     </row>
     <row r="14" spans="1:29" ht="21.75">
-      <c r="A14" s="315" t="s">
+      <c r="A14" s="263" t="s">
         <v>84</v>
       </c>
-      <c r="B14" s="316">
+      <c r="B14" s="264">
         <v>350000</v>
       </c>
       <c r="C14" s="33"/>
@@ -17885,12 +17885,12 @@
       </c>
       <c r="E16" s="201">
         <f>E5+E6+E7+E10+E11+E12</f>
-        <v>5782125</v>
+        <v>5781125</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="166">
         <f>B16-E16</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H16" s="186"/>
       <c r="I16" s="1"/>
@@ -17948,13 +17948,13 @@
       <c r="AC17" s="1"/>
     </row>
     <row r="18" spans="1:29" ht="22.5">
-      <c r="A18" s="306" t="s">
+      <c r="A18" s="308" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="307"/>
-      <c r="C18" s="307"/>
-      <c r="D18" s="307"/>
-      <c r="E18" s="308"/>
+      <c r="B18" s="309"/>
+      <c r="C18" s="309"/>
+      <c r="D18" s="309"/>
+      <c r="E18" s="310"/>
       <c r="F18" s="1"/>
       <c r="G18" s="8"/>
       <c r="H18" s="186"/>
